--- a/IntelligenceAgencyManagementSystem/Docs/Authorisation.xlsx
+++ b/IntelligenceAgencyManagementSystem/Docs/Authorisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makskonevych/Documents/C#/Labs/IntelligenceAgencyManagementSystem/IntelligenceAgencyManagementSystem/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FD7549-63E2-C442-A60D-31A3A9CB36CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D07641-FDFE-CC40-BDF1-C39CD854DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7CC0740D-A8B7-2941-8E3F-13B5969DB8B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{7CC0740D-A8B7-2941-8E3F-13B5969DB8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
   <si>
     <t>Top bar</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>&lt;none&gt;</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
   </si>
   <si>
     <t>Cover Roles</t>
@@ -186,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,13 +256,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -274,13 +306,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +335,53 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -345,33 +437,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -386,13 +451,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD0D8683-C0FA-174B-84B7-1A984A29D6CA}" name="Table1" displayName="Table1" ref="B2:E8" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD0D8683-C0FA-174B-84B7-1A984A29D6CA}" name="Table1" displayName="Table1" ref="B2:E8" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="B2:E8" xr:uid="{AD0D8683-C0FA-174B-84B7-1A984A29D6CA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{681C5C67-1932-2C47-B648-DC3D1079D135}" name="Департаменти" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{B42528EB-EB46-7349-BB16-85EE91563F7C}" name="Кадри" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F18D44D5-798E-6E47-9A93-F296889FD7EB}" name="Операції" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{66447C68-0042-124E-9D3E-8BD22597E850}" name="Адміністрування" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{681C5C67-1932-2C47-B648-DC3D1079D135}" name="Департаменти" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B42528EB-EB46-7349-BB16-85EE91563F7C}" name="Кадри" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F18D44D5-798E-6E47-9A93-F296889FD7EB}" name="Операції" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{66447C68-0042-124E-9D3E-8BD22597E850}" name="Адміністрування" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -402,20 +467,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8675E6A0-2AB3-EF45-A692-980D5AC2EE1C}" name="Table14" displayName="Table14" ref="B10:O16" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="B10:O16" xr:uid="{8675E6A0-2AB3-EF45-A692-980D5AC2EE1C}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{27FA006D-CA19-2E4D-BC18-C8343C16D0A4}" name="Op. Management" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{508D677E-BD82-3543-83B4-E8B5EB4C39E7}" name="Charts" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CD0E2DE9-E35D-ED42-BBAA-4663E10B662D}" name="Departments" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{3E9A7C75-3A5E-4740-A422-656ED142C628}" name="Human Resources" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{34FD81B1-B2AC-0C42-B702-F906CB435ED7}" name="Military Files" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{30F2C3F8-0EDA-2C48-BA2F-4A14109ECE56}" name="Operations" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{48CC7CC6-6242-D14A-98A9-3F3B37C046FE}" name="Cover Roles" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{52482022-B813-FF44-9456-C7962657E5DB}" name="Roles" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{48F287F4-08E5-AC42-AB86-225D3F6986F5}" name="Tasks" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{27CB506A-0AB8-394A-B03D-A605A1D61953}" name="Task Statuses" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{167E8CEA-040F-B341-979D-3AB9626BAAE1}" name="User Roles" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{5C16D734-82A2-C649-A049-09F6F5540512}" name="Workers" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0EA04A08-2EA7-2240-96E0-7F3D41AF8044}" name="Workers to op." dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{B05EF8C0-2851-8248-81C2-CFBC106C1AF0}" name="Working in dep." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{27FA006D-CA19-2E4D-BC18-C8343C16D0A4}" name="Op. Management" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{508D677E-BD82-3543-83B4-E8B5EB4C39E7}" name="Charts" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CD0E2DE9-E35D-ED42-BBAA-4663E10B662D}" name="Departments" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3E9A7C75-3A5E-4740-A422-656ED142C628}" name="Working in dep." dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{34FD81B1-B2AC-0C42-B702-F906CB435ED7}" name="Military Files" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{30F2C3F8-0EDA-2C48-BA2F-4A14109ECE56}" name="Operations" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{48CC7CC6-6242-D14A-98A9-3F3B37C046FE}" name="Cover Roles" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{52482022-B813-FF44-9456-C7962657E5DB}" name="Roles" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{48F287F4-08E5-AC42-AB86-225D3F6986F5}" name="Tasks" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{27CB506A-0AB8-394A-B03D-A605A1D61953}" name="Task Statuses" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{167E8CEA-040F-B341-979D-3AB9626BAAE1}" name="User Roles" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5C16D734-82A2-C649-A049-09F6F5540512}" name="Workers" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{0EA04A08-2EA7-2240-96E0-7F3D41AF8044}" name="Workers to op." dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B05EF8C0-2851-8248-81C2-CFBC106C1AF0}" name="HR" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,7 +786,7 @@
   <dimension ref="A2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="G21" sqref="G21:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,7 +801,7 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -843,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -851,38 +916,38 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -896,7 +961,7 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -921,12 +986,14 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>10</v>
@@ -956,7 +1023,7 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1063,7 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1042,7 +1109,7 @@
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1086,7 +1153,7 @@
       <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
